--- a/biology/Botanique/Beurré_Superfin/Beurré_Superfin.xlsx
+++ b/biology/Botanique/Beurré_Superfin/Beurré_Superfin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Superfin</t>
+          <t>Beurré_Superfin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré Superfin est une variété de poire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Superfin</t>
+          <t>Beurré_Superfin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un temps confondu avec la poire Cumberland de Van Mons[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un temps confondu avec la poire Cumberland de Van Mons.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Superfin</t>
+          <t>Beurré_Superfin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sorti d'un semis de pépins de Duchesse d'Angoulême, de Gros-Blanquet et de Doyenné[2].
-M. Bougault a obtenu ce fruit en 1844, en France, à Millepieds, près de Cholet et d'Angers[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorti d'un semis de pépins de Duchesse d'Angoulême, de Gros-Blanquet et de Doyenné.
+M. Bougault a obtenu ce fruit en 1844, en France, à Millepieds, près de Cholet et d'Angers.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Superfin</t>
+          <t>Beurré_Superfin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rameaux moyens, courts, un peu arqués, chamois clair.
 Yeux moyens, allongés, aigus, écartés du rameau.
 Culture : cet arbre greffé sur cognassier en forme naine est assez vigoureux et fertile ; sur franc, soumis à un pincement régulier et à une taille longue, planté en sol riche au nord est ou au sud est, il produit sans s'épuiser.
 Variété appréciée par l'amateur, peu sujette à la tavelure, mériterait d'être étudiée en culture intensive où la finesse de sa chair et son goût exquis seraient vite appréciés du public.
-Fruit d'amateur[4].
+Fruit d'amateur.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Superfin</t>
+          <t>Beurré_Superfin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gros, turbiné obtus et ventru, il est aussi large que haut.
 Épiderme : lisse, jaune doré, faiblement lavé de carmin du côté du soleil, pointillé de roux, parsemé de quelques taches fauves, formant plaque dans la cavité de l'œil.
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Superfin</t>
+          <t>Beurré_Superfin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,9 +665,11 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les produits de cette très bonne variété, délicate, n'ont pas été destinés à la grande production, mais sont les meilleurs pour le verger d'amateur[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits de cette très bonne variété, délicate, n'ont pas été destinés à la grande production, mais sont les meilleurs pour le verger d'amateur.
 </t>
         </is>
       </c>
